--- a/博客数据表.xlsx
+++ b/博客数据表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA55E483-CF27-42B9-B163-A56F0B93D3F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +19,251 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员表 bk_admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">super </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updata_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员表bk_nember</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">desc </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cate_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航表 bk_cate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章表 bk_article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论表 bk_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arricle_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nember_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置表 bk_system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版权信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copyright</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum类型; "0","1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +287,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +574,453 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="15.25" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A46:D46"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>